--- a/BackTest/2020-01-22 BackTest BCH.xlsx
+++ b/BackTest/2020-01-22 BackTest BCH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
         <v>47.51351634</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>34.58441634</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>466.3875179899998</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>438.5056179899998</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>433.2602179899998</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>448.0348179899998</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>275.3815179899998</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-149.4968984100001</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-113.5479482400001</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-118.2432482400001</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-118.2432482400001</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-131.7438446900001</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-129.4001446900001</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-120.7587446900001</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>50.00714448999993</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>74.55964448999993</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>73.76934448999992</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>125.4063266299999</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>148.8775797499999</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>131.8181797499999</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>156.6856797499999</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>163.9258266299999</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>104.3481266299999</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>104.3481266299999</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>53.28812662999994</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>59.12091599999994</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>57.71911599999994</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>1.938339239999934</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>1.938339239999934</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-69.40496076000007</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>28.75383923999993</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>28.75383923999993</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>28.75383923999993</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-28.93136076000007</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-1.459677830000068</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-14.35317783000007</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-30.02677783000007</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-25.25907783000007</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-21.15797783000007</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-11.44227783000007</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>21.83132216999994</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>21.83132216999994</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-6.957377830000063</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-14.16197783000006</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-1.446678130000071</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>50.85582186999993</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>63.92502186999993</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>63.92502186999993</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>28.94432186999993</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-37.12527813000006</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-3.703078130000065</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>19.14422186999994</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-48.13577813000006</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-48.13577813000006</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-14.58587813000006</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-32.61797813000006</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-22.61797813000006</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-123.8401781300001</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-241.49438688</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-275.28068688</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-274.21268688</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-266.9840868800001</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-267.7637868800001</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-267.7637868800001</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-269.28378688</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-283.80328688</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-342.1312868800001</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-321.75158688</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-355.8780868800001</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-430.1981868800001</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-411.9217868800001</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-377.3674868800001</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-348.3099868800001</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-325.63188688</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-330.01798688</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-308.91678688</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-298.36018688</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -14443,11 +14443,17 @@
         <v>-1121.70963573</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>387300</v>
+      </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14476,11 +14482,17 @@
         <v>-1080.12383573</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>387000</v>
+      </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14509,11 +14521,17 @@
         <v>-1098.06073573</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>387100</v>
+      </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14542,11 +14560,17 @@
         <v>-1098.06073573</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>386600</v>
+      </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14575,11 +14599,17 @@
         <v>-1060.49563573</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>386600</v>
+      </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14608,11 +14638,17 @@
         <v>-1035.57453573</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>388000</v>
+      </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14641,11 +14677,17 @@
         <v>-1020.20893573</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>388300</v>
+      </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14674,11 +14716,17 @@
         <v>-1019.11943573</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>388400</v>
+      </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14707,11 +14755,17 @@
         <v>-998.7143357299998</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>389000</v>
+      </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14740,11 +14794,17 @@
         <v>-959.4599357299998</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>389200</v>
+      </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14777,7 +14837,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14810,7 +14874,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14843,7 +14911,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14872,11 +14944,17 @@
         <v>-956.0766814799998</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>388700</v>
+      </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14909,7 +14987,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14942,7 +15024,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14975,7 +15061,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15004,15 +15094,13 @@
         <v>-974.0579278799999</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
-      </c>
-      <c r="I443" t="n">
-        <v>388000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L443" t="n">
@@ -15043,7 +15131,7 @@
         <v>-973.6889278799998</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I444" t="n">
         <v>387300</v>
@@ -15082,9 +15170,11 @@
         <v>-973.6910278799999</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>387700</v>
+      </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
@@ -15119,9 +15209,11 @@
         <v>-972.6910278799999</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>387500</v>
+      </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
@@ -15156,9 +15248,11 @@
         <v>-982.8192278799999</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>388600</v>
+      </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
@@ -15230,9 +15324,11 @@
         <v>-978.1427376799999</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>387800</v>
+      </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
@@ -15267,9 +15363,11 @@
         <v>-978.1427376799999</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>388000</v>
+      </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
@@ -15304,9 +15402,11 @@
         <v>-978.1427376799999</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>388000</v>
+      </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
@@ -15341,9 +15441,11 @@
         <v>-976.2065376799999</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>388000</v>
+      </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
@@ -15563,11 +15665,9 @@
         <v>-933.4267376799999</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
-      </c>
-      <c r="I458" t="n">
-        <v>388700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
@@ -15639,11 +15739,9 @@
         <v>-916.2504376799999</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
-      </c>
-      <c r="I460" t="n">
-        <v>388800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
@@ -15678,11 +15776,9 @@
         <v>-916.2504376799999</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
-      </c>
-      <c r="I461" t="n">
-        <v>389000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
@@ -15717,11 +15813,9 @@
         <v>-915.3516189899999</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
-      </c>
-      <c r="I462" t="n">
-        <v>389000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
@@ -15756,11 +15850,9 @@
         <v>-915.3516189899999</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
-      </c>
-      <c r="I463" t="n">
-        <v>389400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
@@ -16017,7 +16109,7 @@
         <v>-1000.14761899</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I470" t="n">
         <v>388600</v>
@@ -16056,7 +16148,7 @@
         <v>-1006.23521899</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I471" t="n">
         <v>388500</v>
@@ -16095,7 +16187,7 @@
         <v>-995.6809684599999</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I472" t="n">
         <v>388400</v>
@@ -16134,7 +16226,7 @@
         <v>-1002.68216846</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I473" t="n">
         <v>389800</v>
@@ -16173,11 +16265,9 @@
         <v>-998.4821684599999</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
-      </c>
-      <c r="I474" t="n">
-        <v>389500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
@@ -16212,11 +16302,9 @@
         <v>-1003.66166846</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
-      </c>
-      <c r="I475" t="n">
-        <v>389800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
@@ -16251,11 +16339,9 @@
         <v>-997.1321684599999</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
-      </c>
-      <c r="I476" t="n">
-        <v>389700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
@@ -16290,11 +16376,9 @@
         <v>-997.1321684599999</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
-      </c>
-      <c r="I477" t="n">
-        <v>389900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
@@ -16329,11 +16413,9 @@
         <v>-997.1321684599999</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
-      </c>
-      <c r="I478" t="n">
-        <v>389900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
@@ -16368,11 +16450,9 @@
         <v>-1015.10116846</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
-      </c>
-      <c r="I479" t="n">
-        <v>389900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
@@ -16407,11 +16487,9 @@
         <v>-1003.78696846</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
-      </c>
-      <c r="I480" t="n">
-        <v>389600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
@@ -16446,11 +16524,9 @@
         <v>-1003.78696846</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
-      </c>
-      <c r="I481" t="n">
-        <v>390000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
@@ -16485,11 +16561,9 @@
         <v>-1001.39166846</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
-      </c>
-      <c r="I482" t="n">
-        <v>390000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
@@ -16561,11 +16635,9 @@
         <v>-1007.75352454</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
-      </c>
-      <c r="I484" t="n">
-        <v>390200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
@@ -16600,11 +16672,9 @@
         <v>-950.1817245399998</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
-      </c>
-      <c r="I485" t="n">
-        <v>390300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
@@ -16972,11 +17042,9 @@
         <v>-547.5900806399999</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
-      </c>
-      <c r="I495" t="n">
-        <v>392300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
@@ -17011,11 +17079,9 @@
         <v>-597.7444806399999</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
-      </c>
-      <c r="I496" t="n">
-        <v>392200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
@@ -17050,11 +17116,9 @@
         <v>-629.5869806399999</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
-      </c>
-      <c r="I497" t="n">
-        <v>391900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
@@ -17089,11 +17153,9 @@
         <v>-658.2746806399998</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
-      </c>
-      <c r="I498" t="n">
-        <v>390900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
@@ -17128,11 +17190,9 @@
         <v>-657.1986806399998</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
-      </c>
-      <c r="I499" t="n">
-        <v>390600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
@@ -17167,11 +17227,9 @@
         <v>-657.1986806399998</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
-      </c>
-      <c r="I500" t="n">
-        <v>391300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
@@ -17206,11 +17264,9 @@
         <v>-657.6007806399998</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
-      </c>
-      <c r="I501" t="n">
-        <v>391300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
@@ -17245,11 +17301,9 @@
         <v>-679.2902806399998</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
-      </c>
-      <c r="I502" t="n">
-        <v>391200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
@@ -17284,11 +17338,9 @@
         <v>-691.4242806399998</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
-      </c>
-      <c r="I503" t="n">
-        <v>390900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
@@ -17323,11 +17375,9 @@
         <v>-708.8322806399998</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
-      </c>
-      <c r="I504" t="n">
-        <v>390200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
@@ -17362,11 +17412,9 @@
         <v>-676.2012806399998</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
-      </c>
-      <c r="I505" t="n">
-        <v>390000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
@@ -17401,9 +17449,11 @@
         <v>-676.2012806399998</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>390100</v>
+      </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
@@ -17438,9 +17488,11 @@
         <v>-675.7142806399999</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>390100</v>
+      </c>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
@@ -17475,9 +17527,11 @@
         <v>-643.0486806399998</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>390200</v>
+      </c>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
@@ -28057,11 +28111,9 @@
         <v>-763.7945808000001</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
-      </c>
-      <c r="I794" t="n">
-        <v>388400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr">
         <is>
@@ -28096,11 +28148,9 @@
         <v>-763.5019808000001</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
-      </c>
-      <c r="I795" t="n">
-        <v>389000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr">
         <is>
@@ -28986,11 +29036,9 @@
         <v>-543.9346808000004</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
-      </c>
-      <c r="I819" t="n">
-        <v>389400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
@@ -29025,11 +29073,9 @@
         <v>-476.5981808000004</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
-      </c>
-      <c r="I820" t="n">
-        <v>390000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
@@ -29064,11 +29110,9 @@
         <v>-481.5307808000003</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
-      </c>
-      <c r="I821" t="n">
-        <v>390500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
@@ -29103,11 +29147,9 @@
         <v>-430.5178808000003</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
-      </c>
-      <c r="I822" t="n">
-        <v>390400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
@@ -29142,11 +29184,9 @@
         <v>-347.6877808000003</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
-      </c>
-      <c r="I823" t="n">
-        <v>391000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
@@ -31364,11 +31404,9 @@
         <v>-542.3606171000004</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
-      </c>
-      <c r="I883" t="n">
-        <v>389600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
@@ -40335,6 +40373,6 @@
       <c r="M1125" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest BCH.xlsx
+++ b/BackTest/2020-01-22 BackTest BCH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>112.68351634</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>155.59251634</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>81.06521634000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>88.80301634</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>47.51351634</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>34.58441634</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>118.93011634</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>247.63681634</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>213.77821634</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>245.75811634</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>283.81626552</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>244.0695993</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>192.7154993</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>276.3968993</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>267.2066993</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>252.1188993</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>182.4698993</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>124.8592993</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>116.3557993</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>78.37219929999998</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>315.08697002</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>291.1606700199999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>250.8831179899999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>258.1099179899999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>310.0243179899999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>325.6731179899999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>614.5784179899998</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>531.3847179899998</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>478.3105179899998</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>440.0110179899997</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>465.9204179899997</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>466.3875179899998</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>438.5056179899998</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>433.2602179899998</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>319.2226179899998</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>319.2226179899998</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>427.9177403199999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>533.6171403199999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>310.3708403199998</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>307.9221403199999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>56.32544031999987</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>56.32544031999987</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>37.89194031999988</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>90.39254108999987</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>108.2618410899999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-108.4403589100001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-119.6592589100001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-149.8038589100001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-149.8038589100001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-141.9725589100001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-77.92675891000015</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-77.98765891000015</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-88.37335891000015</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-93.49195891000015</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-94.60075891000015</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-82.95175891000015</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-83.60705891000015</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-68.06945379000015</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-69.06945379000015</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-63.85075379000016</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-68.64425379000015</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-126.4359413100001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-132.0359413100001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-135.4359413100001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>53.28812662999994</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>59.12091599999994</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>57.71911599999994</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>1.938339239999934</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>1.938339239999934</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-69.40496076000007</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>28.75383923999993</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>28.75383923999993</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>28.75383923999993</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-28.93136076000007</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-1.459677830000068</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-14.35317783000007</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-30.02677783000007</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-25.25907783000007</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-21.15797783000007</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-11.44227783000007</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>21.83132216999994</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>21.83132216999994</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-6.957377830000063</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-14.16197783000006</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-1.446678130000071</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>50.85582186999993</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>63.92502186999993</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>63.92502186999993</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>28.94432186999993</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-37.12527813000006</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-3.703078130000065</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>19.14422186999994</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-48.13577813000006</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-48.13577813000006</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-14.58587813000006</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-32.61797813000006</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-22.61797813000006</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-123.8401781300001</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-241.49438688</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-275.28068688</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-274.21268688</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-266.9840868800001</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-267.7637868800001</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-267.7637868800001</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-269.28378688</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-283.80328688</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-342.1312868800001</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-321.75158688</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-355.8780868800001</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-430.1981868800001</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-411.9217868800001</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-377.3674868800001</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-348.3099868800001</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-325.63188688</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-330.01798688</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-308.91678688</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-298.36018688</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -14443,17 +14443,11 @@
         <v>-1121.70963573</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
-      </c>
-      <c r="I426" t="n">
-        <v>387300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14490,7 +14484,7 @@
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L427" t="n">
@@ -14716,11 +14710,9 @@
         <v>-1019.11943573</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>388400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
@@ -14755,11 +14747,9 @@
         <v>-998.7143357299998</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>389000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
@@ -14794,11 +14784,9 @@
         <v>-959.4599357299998</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>389200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
@@ -14944,11 +14932,9 @@
         <v>-956.0766814799998</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>388700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
@@ -15131,11 +15117,9 @@
         <v>-973.6889278799998</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
-      </c>
-      <c r="I444" t="n">
-        <v>387300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
@@ -15170,11 +15154,9 @@
         <v>-973.6910278799999</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
-      </c>
-      <c r="I445" t="n">
-        <v>387700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
@@ -15209,11 +15191,9 @@
         <v>-972.6910278799999</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
-      </c>
-      <c r="I446" t="n">
-        <v>387500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
@@ -15248,11 +15228,9 @@
         <v>-982.8192278799999</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
-      </c>
-      <c r="I447" t="n">
-        <v>388600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
@@ -15324,11 +15302,9 @@
         <v>-978.1427376799999</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
-      </c>
-      <c r="I449" t="n">
-        <v>387800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
@@ -15363,11 +15339,9 @@
         <v>-978.1427376799999</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
-      </c>
-      <c r="I450" t="n">
-        <v>388000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
@@ -15402,11 +15376,9 @@
         <v>-978.1427376799999</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
-      </c>
-      <c r="I451" t="n">
-        <v>388000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
@@ -15441,11 +15413,9 @@
         <v>-976.2065376799999</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
-      </c>
-      <c r="I452" t="n">
-        <v>388000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
@@ -16109,11 +16079,9 @@
         <v>-1000.14761899</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
-      </c>
-      <c r="I470" t="n">
-        <v>388600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
@@ -16148,11 +16116,9 @@
         <v>-1006.23521899</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
-      </c>
-      <c r="I471" t="n">
-        <v>388500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
@@ -16187,11 +16153,9 @@
         <v>-995.6809684599999</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
-      </c>
-      <c r="I472" t="n">
-        <v>388400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
@@ -16226,11 +16190,9 @@
         <v>-1002.68216846</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
-      </c>
-      <c r="I473" t="n">
-        <v>389800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
@@ -17005,18 +16967,16 @@
         <v>-531.9480806399998</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L494" t="n">
-        <v>1</v>
-      </c>
+      <c r="L494" t="inlineStr"/>
       <c r="M494" t="inlineStr"/>
     </row>
     <row r="495">
@@ -17042,15 +17002,11 @@
         <v>-547.5900806399999</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17079,15 +17035,11 @@
         <v>-597.7444806399999</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17120,11 +17072,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17157,11 +17105,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17194,11 +17138,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17231,11 +17171,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17268,11 +17204,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17305,11 +17237,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17342,11 +17270,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17379,11 +17303,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17416,11 +17336,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17449,17 +17365,11 @@
         <v>-676.2012806399998</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
-      </c>
-      <c r="I506" t="n">
-        <v>390100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17488,17 +17398,11 @@
         <v>-675.7142806399999</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
-      </c>
-      <c r="I507" t="n">
-        <v>390100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17527,17 +17431,11 @@
         <v>-643.0486806399998</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
-      </c>
-      <c r="I508" t="n">
-        <v>390200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17570,11 +17468,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17607,11 +17501,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17644,11 +17534,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17681,11 +17567,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17714,15 +17596,11 @@
         <v>-599.7162806399998</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17751,15 +17629,11 @@
         <v>-598.5701806399998</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17788,15 +17662,11 @@
         <v>-601.1804806399998</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17825,15 +17695,11 @@
         <v>-601.1804806399998</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17862,15 +17728,11 @@
         <v>-543.3845806399999</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17899,15 +17761,11 @@
         <v>-577.6707806399999</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17936,15 +17794,11 @@
         <v>-572.7478806399998</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17977,11 +17831,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18014,11 +17864,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18051,11 +17897,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18084,15 +17926,11 @@
         <v>-467.9253806399998</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18121,15 +17959,11 @@
         <v>-468.0133806399998</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18158,15 +17992,11 @@
         <v>-470.0543806399998</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18195,15 +18025,11 @@
         <v>-339.9754806399998</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18236,11 +18062,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18273,11 +18095,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18310,11 +18128,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18347,11 +18161,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18384,11 +18194,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18421,11 +18227,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18458,11 +18260,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18495,11 +18293,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18532,11 +18326,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18569,11 +18359,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18606,11 +18392,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18643,11 +18425,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18680,11 +18458,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18717,11 +18491,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18754,11 +18524,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18791,11 +18557,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18828,11 +18590,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18865,11 +18623,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18902,11 +18656,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18939,11 +18689,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18976,11 +18722,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19013,11 +18755,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19050,11 +18788,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19087,11 +18821,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19124,11 +18854,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19161,11 +18887,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19194,15 +18916,11 @@
         <v>-470.5130418099998</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19231,15 +18949,11 @@
         <v>-463.5130418099998</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19268,15 +18982,11 @@
         <v>-477.0882418099998</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19305,15 +19015,11 @@
         <v>-488.9702418099998</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19346,11 +19052,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19383,11 +19085,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19420,11 +19118,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19457,11 +19151,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19494,11 +19184,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19531,11 +19217,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19568,11 +19250,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19605,11 +19283,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19642,11 +19316,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19679,11 +19349,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19716,11 +19382,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19753,11 +19415,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19790,11 +19448,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19827,11 +19481,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19864,11 +19514,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19901,11 +19547,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19938,11 +19580,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19975,11 +19613,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20012,11 +19646,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20049,11 +19679,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20086,11 +19712,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20123,11 +19745,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20160,11 +19778,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20197,11 +19811,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20234,11 +19844,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20271,11 +19877,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20308,11 +19910,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20345,11 +19943,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20382,11 +19976,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20419,11 +20009,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20456,11 +20042,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20493,11 +20075,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20530,11 +20108,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20567,11 +20141,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20604,11 +20174,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20641,11 +20207,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20678,11 +20240,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20715,11 +20273,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20752,11 +20306,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20789,11 +20339,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20826,11 +20372,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20863,11 +20405,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20900,11 +20438,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20937,11 +20471,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20974,11 +20504,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21011,11 +20537,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21048,11 +20570,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21085,11 +20603,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21122,11 +20636,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21159,11 +20669,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21196,11 +20702,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21233,11 +20735,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21270,11 +20768,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21307,11 +20801,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21344,11 +20834,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21381,11 +20867,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21418,11 +20900,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21455,11 +20933,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21492,11 +20966,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21529,11 +20999,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21566,11 +21032,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21603,11 +21065,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21640,11 +21098,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21677,11 +21131,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21714,11 +21164,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21751,11 +21197,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21788,11 +21230,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21825,11 +21263,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21862,11 +21296,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21899,11 +21329,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21936,11 +21362,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21973,11 +21395,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22010,11 +21428,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22047,11 +21461,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22084,11 +21494,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22121,11 +21527,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22158,11 +21560,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22195,11 +21593,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22232,11 +21626,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22269,11 +21659,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22306,11 +21692,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22343,11 +21725,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22380,11 +21758,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22417,11 +21791,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22454,11 +21824,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22491,11 +21857,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22528,11 +21890,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22565,11 +21923,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22602,11 +21956,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22639,11 +21989,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22676,11 +22022,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22713,11 +22055,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22750,11 +22088,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22787,11 +22121,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22824,11 +22154,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22861,11 +22187,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22898,11 +22220,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22935,11 +22253,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22972,11 +22286,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23009,11 +22319,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23046,11 +22352,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23083,11 +22385,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23120,11 +22418,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23157,11 +22451,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23194,11 +22484,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23231,11 +22517,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23268,11 +22550,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23305,11 +22583,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23342,11 +22616,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23379,11 +22649,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23416,11 +22682,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23453,11 +22715,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23490,11 +22748,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23527,11 +22781,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23564,11 +22814,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23601,11 +22847,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23638,11 +22880,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23675,11 +22913,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23712,11 +22946,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23749,11 +22979,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23786,11 +23012,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23823,11 +23045,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23860,11 +23078,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23897,11 +23111,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23934,11 +23144,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23971,11 +23177,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24008,11 +23210,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24045,11 +23243,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24082,11 +23276,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24119,11 +23309,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24156,11 +23342,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24193,11 +23375,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24230,11 +23408,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24267,11 +23441,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24304,11 +23474,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24341,11 +23507,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24378,11 +23540,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24415,11 +23573,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24452,11 +23606,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24489,11 +23639,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24526,11 +23672,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24563,11 +23705,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24600,11 +23738,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24637,11 +23771,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24674,11 +23804,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24711,11 +23837,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24748,11 +23870,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24785,11 +23903,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24822,11 +23936,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24859,11 +23969,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24896,11 +24002,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24933,11 +24035,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24970,11 +24068,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -25007,11 +24101,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -25044,11 +24134,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -25081,11 +24167,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -25118,11 +24200,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -25155,11 +24233,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -25192,11 +24266,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -25229,11 +24299,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -25266,11 +24332,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25303,11 +24365,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25340,11 +24398,7 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25377,11 +24431,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25414,11 +24464,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25451,11 +24497,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25488,11 +24530,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25525,11 +24563,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25562,11 +24596,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25599,11 +24629,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25636,11 +24662,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25673,11 +24695,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25710,11 +24728,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25747,11 +24761,7 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25784,11 +24794,7 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25821,11 +24827,7 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -25858,11 +24860,7 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -25895,11 +24893,7 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25932,11 +24926,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25969,11 +24959,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -26006,11 +24992,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -26043,11 +25025,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -26080,11 +25058,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -26117,11 +25091,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -26154,11 +25124,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -26191,11 +25157,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -26228,11 +25190,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -26265,11 +25223,7 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -26302,11 +25256,7 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -26339,11 +25289,7 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -26376,11 +25322,7 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -26413,11 +25355,7 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -26450,11 +25388,7 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26487,11 +25421,7 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26524,11 +25454,7 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26561,11 +25487,7 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26598,11 +25520,7 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26635,11 +25553,7 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26672,11 +25586,7 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26709,11 +25619,7 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26746,11 +25652,7 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26783,11 +25685,7 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26820,11 +25718,7 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -26857,11 +25751,7 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26894,11 +25784,7 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26931,11 +25817,7 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26968,11 +25850,7 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -27005,11 +25883,7 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -27042,11 +25916,7 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -27079,11 +25949,7 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -27116,11 +25982,7 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -27153,11 +26015,7 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -27190,11 +26048,7 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -27227,11 +26081,7 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -27264,11 +26114,7 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -27301,11 +26147,7 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -27338,11 +26180,7 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -27375,11 +26213,7 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -27412,11 +26246,7 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -27449,11 +26279,7 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -27486,11 +26312,7 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -27523,11 +26345,7 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -27560,11 +26378,7 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -27597,11 +26411,7 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -27634,11 +26444,7 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -27671,11 +26477,7 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -27708,11 +26510,7 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -27745,11 +26543,7 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -27782,11 +26576,7 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -27819,11 +26609,7 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -27856,11 +26642,7 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -27893,11 +26675,7 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -27930,11 +26708,7 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -27967,11 +26741,7 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -28004,11 +26774,7 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -28041,11 +26807,7 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -28078,11 +26840,7 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -28115,11 +26873,7 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -28152,11 +26906,7 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -28189,11 +26939,7 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K796" t="inlineStr"/>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -28226,11 +26972,7 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K797" t="inlineStr"/>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -28263,11 +27005,7 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -28300,11 +27038,7 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -28337,11 +27071,7 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K800" t="inlineStr"/>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -28374,11 +27104,7 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K801" t="inlineStr"/>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -28411,11 +27137,7 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K802" t="inlineStr"/>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -28448,11 +27170,7 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K803" t="inlineStr"/>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -28485,11 +27203,7 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K804" t="inlineStr"/>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -28522,11 +27236,7 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K805" t="inlineStr"/>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -28559,11 +27269,7 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K806" t="inlineStr"/>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -28596,11 +27302,7 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K807" t="inlineStr"/>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -28633,11 +27335,7 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K808" t="inlineStr"/>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -28670,11 +27368,7 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K809" t="inlineStr"/>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -28707,11 +27401,7 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K810" t="inlineStr"/>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -28744,11 +27434,7 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K811" t="inlineStr"/>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -28781,11 +27467,7 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K812" t="inlineStr"/>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -28818,11 +27500,7 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K813" t="inlineStr"/>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -28855,11 +27533,7 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K814" t="inlineStr"/>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -28892,11 +27566,7 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K815" t="inlineStr"/>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -28929,11 +27599,7 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K816" t="inlineStr"/>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -28966,11 +27632,7 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K817" t="inlineStr"/>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -29003,11 +27665,7 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K818" t="inlineStr"/>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -29040,11 +27698,7 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K819" t="inlineStr"/>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -29077,11 +27731,7 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K820" t="inlineStr"/>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -29114,11 +27764,7 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K821" t="inlineStr"/>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -29151,11 +27797,7 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K822" t="inlineStr"/>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -29188,11 +27830,7 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K823" t="inlineStr"/>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -29225,11 +27863,7 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K824" t="inlineStr"/>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -29262,11 +27896,7 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K825" t="inlineStr"/>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -29299,11 +27929,7 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K826" t="inlineStr"/>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -29336,11 +27962,7 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K827" t="inlineStr"/>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -29373,11 +27995,7 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K828" t="inlineStr"/>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -29410,11 +28028,7 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K829" t="inlineStr"/>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -29447,11 +28061,7 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K830" t="inlineStr"/>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -29484,11 +28094,7 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K831" t="inlineStr"/>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -29521,11 +28127,7 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K832" t="inlineStr"/>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -29558,11 +28160,7 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K833" t="inlineStr"/>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -29595,11 +28193,7 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K834" t="inlineStr"/>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -29632,11 +28226,7 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K835" t="inlineStr"/>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -29669,11 +28259,7 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K836" t="inlineStr"/>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -29706,11 +28292,7 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K837" t="inlineStr"/>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -29743,11 +28325,7 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K838" t="inlineStr"/>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -29780,11 +28358,7 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K839" t="inlineStr"/>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -29817,11 +28391,7 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K840" t="inlineStr"/>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -29854,11 +28424,7 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K841" t="inlineStr"/>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -29891,11 +28457,7 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K842" t="inlineStr"/>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -29928,11 +28490,7 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K843" t="inlineStr"/>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -29965,11 +28523,7 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K844" t="inlineStr"/>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -30002,11 +28556,7 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K845" t="inlineStr"/>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -30039,11 +28589,7 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K846" t="inlineStr"/>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -30076,11 +28622,7 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -30113,11 +28655,7 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K848" t="inlineStr"/>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -30150,11 +28688,7 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K849" t="inlineStr"/>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -30187,11 +28721,7 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K850" t="inlineStr"/>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -30224,11 +28754,7 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K851" t="inlineStr"/>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -30261,11 +28787,7 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K852" t="inlineStr"/>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -30298,11 +28820,7 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K853" t="inlineStr"/>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -30331,15 +28849,11 @@
         <v>-231.9019042500003</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K854" t="inlineStr"/>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -30368,15 +28882,11 @@
         <v>-220.5503042500003</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K855" t="inlineStr"/>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -30405,15 +28915,11 @@
         <v>-244.7933042500003</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K856" t="inlineStr"/>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -30442,15 +28948,11 @@
         <v>-153.2156171000003</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K857" t="inlineStr"/>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -30479,15 +28981,11 @@
         <v>-174.2414171000003</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K858" t="inlineStr"/>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -30516,15 +29014,11 @@
         <v>-182.8022171000003</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K859" t="inlineStr"/>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -30553,15 +29047,11 @@
         <v>-294.3415171000003</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K860" t="inlineStr"/>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -30590,15 +29080,11 @@
         <v>-290.2829171000003</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K861" t="inlineStr"/>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -30627,15 +29113,11 @@
         <v>-345.4496171000003</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K862" t="inlineStr"/>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -30664,15 +29146,11 @@
         <v>-395.4516171000003</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K863" t="inlineStr"/>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -30705,11 +29183,7 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K864" t="inlineStr"/>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -30742,11 +29216,7 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K865" t="inlineStr"/>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -30779,11 +29249,7 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K866" t="inlineStr"/>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -30816,11 +29282,7 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K867" t="inlineStr"/>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -30853,11 +29315,7 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K868" t="inlineStr"/>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -30890,11 +29348,7 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K869" t="inlineStr"/>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -30927,11 +29381,7 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K870" t="inlineStr"/>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -30964,11 +29414,7 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K871" t="inlineStr"/>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -31001,11 +29447,7 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K872" t="inlineStr"/>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -31038,11 +29480,7 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K873" t="inlineStr"/>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -31075,11 +29513,7 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K874" t="inlineStr"/>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -31112,11 +29546,7 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K875" t="inlineStr"/>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -31149,11 +29579,7 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K876" t="inlineStr"/>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -31186,11 +29612,7 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K877" t="inlineStr"/>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -31223,11 +29645,7 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K878" t="inlineStr"/>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -31260,11 +29678,7 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K879" t="inlineStr"/>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -31297,11 +29711,7 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K880" t="inlineStr"/>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -31334,11 +29744,7 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K881" t="inlineStr"/>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -31371,11 +29777,7 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K882" t="inlineStr"/>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -31408,11 +29810,7 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K883" t="inlineStr"/>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -31445,11 +29843,7 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K884" t="inlineStr"/>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -31482,11 +29876,7 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K885" t="inlineStr"/>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -31519,11 +29909,7 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K886" t="inlineStr"/>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -31556,11 +29942,7 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K887" t="inlineStr"/>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -31593,11 +29975,7 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K888" t="inlineStr"/>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -31630,11 +30008,7 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K889" t="inlineStr"/>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -31667,11 +30041,7 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K890" t="inlineStr"/>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -31704,11 +30074,7 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K891" t="inlineStr"/>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -31741,11 +30107,7 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K892" t="inlineStr"/>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -31778,11 +30140,7 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K893" t="inlineStr"/>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -31815,11 +30173,7 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K894" t="inlineStr"/>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -31852,11 +30206,7 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K895" t="inlineStr"/>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -31889,11 +30239,7 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K896" t="inlineStr"/>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -31926,11 +30272,7 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K897" t="inlineStr"/>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -31963,11 +30305,7 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K898" t="inlineStr"/>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -32000,11 +30338,7 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K899" t="inlineStr"/>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -32037,11 +30371,7 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K900" t="inlineStr"/>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -32074,11 +30404,7 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K901" t="inlineStr"/>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -32111,11 +30437,7 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K902" t="inlineStr"/>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -32148,11 +30470,7 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K903" t="inlineStr"/>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -32185,11 +30503,7 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K904" t="inlineStr"/>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -32222,11 +30536,7 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K905" t="inlineStr"/>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -32259,11 +30569,7 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K906" t="inlineStr"/>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -32296,11 +30602,7 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K907" t="inlineStr"/>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -32333,11 +30635,7 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K908" t="inlineStr"/>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -32370,11 +30668,7 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K909" t="inlineStr"/>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -32407,11 +30701,7 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K910" t="inlineStr"/>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -32444,11 +30734,7 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K911" t="inlineStr"/>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -32481,11 +30767,7 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K912" t="inlineStr"/>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -32518,11 +30800,7 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K913" t="inlineStr"/>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -32555,11 +30833,7 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K914" t="inlineStr"/>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -32592,11 +30866,7 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K915" t="inlineStr"/>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -32629,11 +30899,7 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K916" t="inlineStr"/>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -32666,11 +30932,7 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K917" t="inlineStr"/>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -32703,11 +30965,7 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K918" t="inlineStr"/>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -32740,11 +30998,7 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K919" t="inlineStr"/>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -32777,11 +31031,7 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K920" t="inlineStr"/>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -32814,11 +31064,7 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K921" t="inlineStr"/>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -32851,11 +31097,7 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K922" t="inlineStr"/>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -32888,11 +31130,7 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K923" t="inlineStr"/>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -32925,11 +31163,7 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K924" t="inlineStr"/>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -32962,11 +31196,7 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K925" t="inlineStr"/>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -32999,11 +31229,7 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K926" t="inlineStr"/>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -33036,11 +31262,7 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K927" t="inlineStr"/>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -33073,11 +31295,7 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K928" t="inlineStr"/>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -33110,11 +31328,7 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K929" t="inlineStr"/>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -33147,11 +31361,7 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K930" t="inlineStr"/>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -33184,11 +31394,7 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K931" t="inlineStr"/>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -33221,11 +31427,7 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K932" t="inlineStr"/>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -33258,11 +31460,7 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K933" t="inlineStr"/>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -33291,15 +31489,11 @@
         <v>-803.2049901800004</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K934" t="inlineStr"/>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -33328,15 +31522,11 @@
         <v>-802.9916901800004</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K935" t="inlineStr"/>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -33365,15 +31555,11 @@
         <v>-802.9916901800004</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K936" t="inlineStr"/>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -33402,15 +31588,11 @@
         <v>-802.9916901800004</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K937" t="inlineStr"/>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -33439,15 +31621,11 @@
         <v>-769.4495901800004</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K938" t="inlineStr"/>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -33476,15 +31654,11 @@
         <v>-786.7093901800005</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K939" t="inlineStr"/>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -33517,11 +31691,7 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K940" t="inlineStr"/>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -33554,11 +31724,7 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K941" t="inlineStr"/>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -33591,11 +31757,7 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K942" t="inlineStr"/>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -33628,11 +31790,7 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K943" t="inlineStr"/>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -33665,11 +31823,7 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K944" t="inlineStr"/>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -33702,11 +31856,7 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K945" t="inlineStr"/>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -33739,11 +31889,7 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K946" t="inlineStr"/>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -33776,11 +31922,7 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K947" t="inlineStr"/>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -33813,11 +31955,7 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K948" t="inlineStr"/>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -33850,11 +31988,7 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K949" t="inlineStr"/>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -33887,11 +32021,7 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K950" t="inlineStr"/>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -33924,11 +32054,7 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K951" t="inlineStr"/>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -33961,11 +32087,7 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K952" t="inlineStr"/>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -33998,11 +32120,7 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K953" t="inlineStr"/>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -34035,11 +32153,7 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K954" t="inlineStr"/>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -34072,11 +32186,7 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K955" t="inlineStr"/>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -34109,11 +32219,7 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K956" t="inlineStr"/>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -34146,11 +32252,7 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K957" t="inlineStr"/>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -34183,11 +32285,7 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K958" t="inlineStr"/>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -34220,11 +32318,7 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K959" t="inlineStr"/>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -34257,11 +32351,7 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K960" t="inlineStr"/>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -34294,11 +32384,7 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K961" t="inlineStr"/>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -34331,11 +32417,7 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K962" t="inlineStr"/>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -34368,11 +32450,7 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K963" t="inlineStr"/>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -34405,11 +32483,7 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K964" t="inlineStr"/>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -34442,11 +32516,7 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K965" t="inlineStr"/>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -34479,11 +32549,7 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K966" t="inlineStr"/>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -34516,11 +32582,7 @@
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K967" t="inlineStr"/>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -34553,11 +32615,7 @@
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K968" t="inlineStr"/>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -34590,11 +32648,7 @@
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K969" t="inlineStr"/>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -34627,11 +32681,7 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K970" t="inlineStr"/>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -34664,11 +32714,7 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K971" t="inlineStr"/>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -34701,11 +32747,7 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K972" t="inlineStr"/>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -34738,11 +32780,7 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K973" t="inlineStr"/>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -34775,11 +32813,7 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K974" t="inlineStr"/>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -34812,11 +32846,7 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K975" t="inlineStr"/>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -34849,11 +32879,7 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K976" t="inlineStr"/>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -34886,11 +32912,7 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K977" t="inlineStr"/>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -34923,11 +32945,7 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K978" t="inlineStr"/>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -34960,11 +32978,7 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K979" t="inlineStr"/>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -34997,11 +33011,7 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K980" t="inlineStr"/>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -35034,11 +33044,7 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K981" t="inlineStr"/>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -35071,11 +33077,7 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K982" t="inlineStr"/>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -35108,11 +33110,7 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K983" t="inlineStr"/>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -35145,11 +33143,7 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K984" t="inlineStr"/>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -35182,11 +33176,7 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K985" t="inlineStr"/>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -35219,11 +33209,7 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K986" t="inlineStr"/>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -35256,11 +33242,7 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K987" t="inlineStr"/>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -35293,11 +33275,7 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K988" t="inlineStr"/>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -35330,11 +33308,7 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K989" t="inlineStr"/>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -35367,11 +33341,7 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K990" t="inlineStr"/>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -35404,11 +33374,7 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K991" t="inlineStr"/>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -35441,11 +33407,7 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K992" t="inlineStr"/>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -35478,11 +33440,7 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K993" t="inlineStr"/>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -35515,11 +33473,7 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K994" t="inlineStr"/>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -35552,11 +33506,7 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K995" t="inlineStr"/>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -35589,11 +33539,7 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K996" t="inlineStr"/>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -35626,11 +33572,7 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K997" t="inlineStr"/>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -35663,11 +33605,7 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K998" t="inlineStr"/>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -35700,11 +33638,7 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K999" t="inlineStr"/>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -35737,11 +33671,7 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1000" t="inlineStr"/>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -35774,11 +33704,7 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1001" t="inlineStr"/>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -35811,11 +33737,7 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1002" t="inlineStr"/>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -35848,11 +33770,7 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1003" t="inlineStr"/>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -35885,11 +33803,7 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1004" t="inlineStr"/>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -35922,11 +33836,7 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1005" t="inlineStr"/>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -35959,11 +33869,7 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1006" t="inlineStr"/>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -35996,11 +33902,7 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1007" t="inlineStr"/>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -36033,11 +33935,7 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1008" t="inlineStr"/>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -36070,11 +33968,7 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1009" t="inlineStr"/>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -36107,11 +34001,7 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1010" t="inlineStr"/>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -36144,11 +34034,7 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1011" t="inlineStr"/>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -36181,11 +34067,7 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1012" t="inlineStr"/>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -36218,11 +34100,7 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1013" t="inlineStr"/>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -36255,11 +34133,7 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1014" t="inlineStr"/>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -36292,11 +34166,7 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1015" t="inlineStr"/>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -36329,11 +34199,7 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1016" t="inlineStr"/>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -36366,11 +34232,7 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1017" t="inlineStr"/>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -36403,11 +34265,7 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1018" t="inlineStr"/>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -36440,11 +34298,7 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1019" t="inlineStr"/>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -36477,11 +34331,7 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1020" t="inlineStr"/>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -36514,11 +34364,7 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1021" t="inlineStr"/>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -36551,11 +34397,7 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1022" t="inlineStr"/>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -36588,11 +34430,7 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1023" t="inlineStr"/>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -36625,11 +34463,7 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1024" t="inlineStr"/>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -36662,11 +34496,7 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1025" t="inlineStr"/>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -36699,11 +34529,7 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1026" t="inlineStr"/>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -36736,11 +34562,7 @@
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1027" t="inlineStr"/>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -36773,11 +34595,7 @@
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1028" t="inlineStr"/>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -36810,11 +34628,7 @@
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1029" t="inlineStr"/>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -36847,11 +34661,7 @@
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1030" t="inlineStr"/>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -36884,11 +34694,7 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1031" t="inlineStr"/>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -36921,11 +34727,7 @@
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1032" t="inlineStr"/>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -36958,11 +34760,7 @@
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1033" t="inlineStr"/>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -36995,11 +34793,7 @@
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1034" t="inlineStr"/>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -37032,11 +34826,7 @@
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1035" t="inlineStr"/>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -37069,11 +34859,7 @@
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1036" t="inlineStr"/>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -37106,11 +34892,7 @@
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1037" t="inlineStr"/>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -37143,11 +34925,7 @@
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1038" t="inlineStr"/>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -37180,11 +34958,7 @@
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1039" t="inlineStr"/>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -37217,11 +34991,7 @@
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1040" t="inlineStr"/>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -37254,11 +35024,7 @@
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1041" t="inlineStr"/>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -37291,11 +35057,7 @@
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1042" t="inlineStr"/>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -37328,11 +35090,7 @@
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1043" t="inlineStr"/>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -37365,11 +35123,7 @@
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1044" t="inlineStr"/>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -37402,11 +35156,7 @@
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1045" t="inlineStr"/>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -37439,11 +35189,7 @@
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1046" t="inlineStr"/>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -37476,11 +35222,7 @@
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1047" t="inlineStr"/>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -37513,11 +35255,7 @@
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1048" t="inlineStr"/>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -37550,11 +35288,7 @@
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1049" t="inlineStr"/>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -37587,11 +35321,7 @@
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1050" t="inlineStr"/>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -37624,11 +35354,7 @@
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1051" t="inlineStr"/>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -37661,11 +35387,7 @@
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1052" t="inlineStr"/>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -37698,11 +35420,7 @@
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1053" t="inlineStr"/>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -37735,11 +35453,7 @@
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1054" t="inlineStr"/>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -37772,11 +35486,7 @@
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1055" t="inlineStr"/>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -37809,11 +35519,7 @@
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1056" t="inlineStr"/>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -37846,11 +35552,7 @@
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1057" t="inlineStr"/>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -37883,11 +35585,7 @@
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1058" t="inlineStr"/>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -37920,11 +35618,7 @@
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1059" t="inlineStr"/>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -37957,11 +35651,7 @@
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1060" t="inlineStr"/>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -37994,11 +35684,7 @@
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1061" t="inlineStr"/>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -38031,11 +35717,7 @@
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1062" t="inlineStr"/>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -38068,11 +35750,7 @@
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1063" t="inlineStr"/>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -38105,11 +35783,7 @@
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1064" t="inlineStr"/>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -38142,11 +35816,7 @@
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1065" t="inlineStr"/>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -38179,11 +35849,7 @@
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1066" t="inlineStr"/>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -38216,11 +35882,7 @@
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1067" t="inlineStr"/>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -38253,11 +35915,7 @@
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1068" t="inlineStr"/>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -38290,11 +35948,7 @@
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1069" t="inlineStr"/>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -38327,11 +35981,7 @@
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1070" t="inlineStr"/>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -38364,11 +36014,7 @@
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1071" t="inlineStr"/>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -38401,11 +36047,7 @@
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1072" t="inlineStr"/>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -38438,11 +36080,7 @@
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1073" t="inlineStr"/>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -38475,11 +36113,7 @@
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1074" t="inlineStr"/>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -38512,11 +36146,7 @@
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1075" t="inlineStr"/>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -38549,11 +36179,7 @@
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1076" t="inlineStr"/>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -38586,11 +36212,7 @@
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1077" t="inlineStr"/>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -38623,11 +36245,7 @@
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1078" t="inlineStr"/>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -38660,11 +36278,7 @@
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1079" t="inlineStr"/>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -38697,11 +36311,7 @@
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1080" t="inlineStr"/>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -38734,11 +36344,7 @@
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1081" t="inlineStr"/>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -38771,11 +36377,7 @@
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1082" t="inlineStr"/>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -38808,11 +36410,7 @@
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1083" t="inlineStr"/>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -38845,11 +36443,7 @@
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1084" t="inlineStr"/>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -38882,11 +36476,7 @@
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1085" t="inlineStr"/>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -38919,11 +36509,7 @@
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1086" t="inlineStr"/>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -38956,11 +36542,7 @@
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1087" t="inlineStr"/>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -38993,11 +36575,7 @@
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1088" t="inlineStr"/>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
@@ -39030,11 +36608,7 @@
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
-      <c r="K1089" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1089" t="inlineStr"/>
       <c r="L1089" t="n">
         <v>1</v>
       </c>
@@ -39067,11 +36641,7 @@
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
-      <c r="K1090" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1090" t="inlineStr"/>
       <c r="L1090" t="n">
         <v>1</v>
       </c>
@@ -39104,11 +36674,7 @@
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
-      <c r="K1091" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1091" t="inlineStr"/>
       <c r="L1091" t="n">
         <v>1</v>
       </c>
@@ -39141,11 +36707,7 @@
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
-      <c r="K1092" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1092" t="inlineStr"/>
       <c r="L1092" t="n">
         <v>1</v>
       </c>
@@ -39178,11 +36740,7 @@
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
-      <c r="K1093" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1093" t="inlineStr"/>
       <c r="L1093" t="n">
         <v>1</v>
       </c>
@@ -39215,11 +36773,7 @@
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
-      <c r="K1094" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1094" t="inlineStr"/>
       <c r="L1094" t="n">
         <v>1</v>
       </c>
@@ -39252,11 +36806,7 @@
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
-      <c r="K1095" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1095" t="inlineStr"/>
       <c r="L1095" t="n">
         <v>1</v>
       </c>
@@ -39289,11 +36839,7 @@
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
-      <c r="K1096" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1096" t="inlineStr"/>
       <c r="L1096" t="n">
         <v>1</v>
       </c>
@@ -39326,11 +36872,7 @@
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
-      <c r="K1097" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1097" t="inlineStr"/>
       <c r="L1097" t="n">
         <v>1</v>
       </c>
@@ -39363,11 +36905,7 @@
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
-      <c r="K1098" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1098" t="inlineStr"/>
       <c r="L1098" t="n">
         <v>1</v>
       </c>
@@ -39400,11 +36938,7 @@
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
-      <c r="K1099" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1099" t="inlineStr"/>
       <c r="L1099" t="n">
         <v>1</v>
       </c>
@@ -39437,11 +36971,7 @@
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
-      <c r="K1100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1100" t="inlineStr"/>
       <c r="L1100" t="n">
         <v>1</v>
       </c>
@@ -39474,11 +37004,7 @@
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
-      <c r="K1101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1101" t="inlineStr"/>
       <c r="L1101" t="n">
         <v>1</v>
       </c>
@@ -39511,11 +37037,7 @@
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
-      <c r="K1102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1102" t="inlineStr"/>
       <c r="L1102" t="n">
         <v>1</v>
       </c>
@@ -39548,11 +37070,7 @@
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
-      <c r="K1103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1103" t="inlineStr"/>
       <c r="L1103" t="n">
         <v>1</v>
       </c>
@@ -39585,11 +37103,7 @@
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
-      <c r="K1104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1104" t="inlineStr"/>
       <c r="L1104" t="n">
         <v>1</v>
       </c>
@@ -39622,11 +37136,7 @@
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
-      <c r="K1105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1105" t="inlineStr"/>
       <c r="L1105" t="n">
         <v>1</v>
       </c>
@@ -39659,11 +37169,7 @@
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
-      <c r="K1106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1106" t="inlineStr"/>
       <c r="L1106" t="n">
         <v>1</v>
       </c>
@@ -39696,11 +37202,7 @@
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
-      <c r="K1107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1107" t="inlineStr"/>
       <c r="L1107" t="n">
         <v>1</v>
       </c>
@@ -39733,11 +37235,7 @@
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
-      <c r="K1108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1108" t="inlineStr"/>
       <c r="L1108" t="n">
         <v>1</v>
       </c>
@@ -39770,11 +37268,7 @@
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
-      <c r="K1109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1109" t="inlineStr"/>
       <c r="L1109" t="n">
         <v>1</v>
       </c>
@@ -39807,11 +37301,7 @@
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
-      <c r="K1110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1110" t="inlineStr"/>
       <c r="L1110" t="n">
         <v>1</v>
       </c>
@@ -39844,11 +37334,7 @@
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
-      <c r="K1111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1111" t="inlineStr"/>
       <c r="L1111" t="n">
         <v>1</v>
       </c>
@@ -39881,11 +37367,7 @@
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
-      <c r="K1112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1112" t="inlineStr"/>
       <c r="L1112" t="n">
         <v>1</v>
       </c>
@@ -39918,11 +37400,7 @@
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
-      <c r="K1113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1113" t="inlineStr"/>
       <c r="L1113" t="n">
         <v>1</v>
       </c>
@@ -39955,11 +37433,7 @@
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
-      <c r="K1114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1114" t="inlineStr"/>
       <c r="L1114" t="n">
         <v>1</v>
       </c>
@@ -39992,11 +37466,7 @@
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
-      <c r="K1115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1115" t="inlineStr"/>
       <c r="L1115" t="n">
         <v>1</v>
       </c>
@@ -40029,11 +37499,7 @@
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
-      <c r="K1116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1116" t="inlineStr"/>
       <c r="L1116" t="n">
         <v>1</v>
       </c>
@@ -40066,11 +37532,7 @@
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
-      <c r="K1117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1117" t="inlineStr"/>
       <c r="L1117" t="n">
         <v>1</v>
       </c>
@@ -40103,11 +37565,7 @@
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
-      <c r="K1118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1118" t="inlineStr"/>
       <c r="L1118" t="n">
         <v>1</v>
       </c>
@@ -40140,11 +37598,7 @@
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
-      <c r="K1119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1119" t="inlineStr"/>
       <c r="L1119" t="n">
         <v>1</v>
       </c>
@@ -40177,11 +37631,7 @@
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
-      <c r="K1120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1120" t="inlineStr"/>
       <c r="L1120" t="n">
         <v>1</v>
       </c>
@@ -40214,11 +37664,7 @@
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
-      <c r="K1121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1121" t="inlineStr"/>
       <c r="L1121" t="n">
         <v>1</v>
       </c>
@@ -40251,11 +37697,7 @@
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
-      <c r="K1122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1122" t="inlineStr"/>
       <c r="L1122" t="n">
         <v>1</v>
       </c>
@@ -40288,11 +37730,7 @@
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
-      <c r="K1123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1123" t="inlineStr"/>
       <c r="L1123" t="n">
         <v>1</v>
       </c>
@@ -40325,11 +37763,7 @@
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
-      <c r="K1124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1124" t="inlineStr"/>
       <c r="L1124" t="n">
         <v>1</v>
       </c>
@@ -40362,17 +37796,13 @@
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
-      <c r="K1125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1125" t="inlineStr"/>
       <c r="L1125" t="n">
         <v>1</v>
       </c>
       <c r="M1125" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>